--- a/main/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/main/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T12:54:26+00:00</t>
+    <t>2024-09-18T08:16:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -456,7 +456,7 @@
     <t>Uri identifiant les systèmes tiers ayant envoyé la ressource. L’uri est sous la forme d’un oid : « urn:oid:xx.xx.xx »</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -476,7 +476,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -2145,7 +2145,7 @@
     <t>Used when reporting vital signs panel components.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>

--- a/main/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/main/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5039" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5061" uniqueCount="725">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T08:33:33+00:00</t>
+    <t>2024-10-02T08:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -289,7 +289,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}vs-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present. {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}vs-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present. {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
   </si>
   <si>
     <t>Event</t>
@@ -345,10 +345,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Observation.meta.id</t>
   </si>
   <si>
@@ -506,6 +513,12 @@
     <t>Meta.security</t>
   </si>
   <si>
+    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
     <t>Observation.meta.tag</t>
   </si>
   <si>
@@ -622,16 +635,10 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Observation.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -669,10 +676,6 @@
     <t>Extension du Motif de la mesure, exprimé en texte libre  (ex. diabète, surpoids, maladie du cœur et des vaisseaux, cholestérol…).</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Observation.extension:MesMomentOfMeasurement</t>
   </si>
   <si>
@@ -698,6 +701,12 @@
     <t>Observation.extension.extension</t>
   </si>
   <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
     <t>Observation.extension:MesMomentOfMeasurement.url</t>
   </si>
   <si>
@@ -858,6 +867,9 @@
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
   </si>
   <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
@@ -992,7 +1004,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -1043,7 +1055,14 @@
     <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
     <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -1072,7 +1091,7 @@
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
   </si>
   <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -1097,6 +1116,9 @@
   </si>
   <si>
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
@@ -1140,6 +1162,9 @@
   <si>
     <t>value:coding.code}
 value:coding.system}</t>
+  </si>
+  <si>
+    <t>CE/CNE/CWE</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -1347,7 +1372,7 @@
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
   </si>
   <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/extension-observation-focuscode.html).</t>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -1405,14 +1430,14 @@
     <t>Often just a dateTime for Vital Signs.</t>
   </si>
   <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
   </si>
   <si>
-    <t xml:space="preserve">vs-1
-</t>
+    <t>ele-1
+vs-1</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1440,7 +1465,7 @@
     <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
   </si>
   <si>
-    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
+    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
   </si>
   <si>
     <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
@@ -1490,14 +1515,14 @@
     <t>Vital Signs value are recorded using the Quantity data type. For supporting observations such as Cuff size could use other datatypes such as CodeableConcept.</t>
   </si>
   <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/observation.html#notes) below.</t>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
     <t>9. SHALL contain exactly one [1..1] value with @xsi:type="PQ" (CONF:7305).</t>
   </si>
   <si>
-    <t>obs-7
-vs-2</t>
+    <t>ele-1
+obs-7vs-2</t>
   </si>
   <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
@@ -1606,6 +1631,9 @@
     <t>The identification of the system that provides the coded form of the unit.</t>
   </si>
   <si>
+    <t>see http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
+  </si>
+  <si>
     <t>Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
@@ -1615,8 +1643,8 @@
     <t>Quantity.system</t>
   </si>
   <si>
-    <t xml:space="preserve">qty-3
-</t>
+    <t>ele-1
+qty-3</t>
   </si>
   <si>
     <t>CO.codeSystem, PQ.translation.codeSystem</t>
@@ -1668,8 +1696,8 @@
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
-    <t>obs-6
-vs-2</t>
+    <t>ele-1
+obs-6vs-2</t>
   </si>
   <si>
     <t>value.nullFlavor</t>
@@ -1780,7 +1808,7 @@
   </si>
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/extension-bodysite.html).</t>
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -1947,8 +1975,15 @@
     <t>The value of the low bound of the reference range.  The low bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the low bound is omitted,  it is assumed to be meaningless (e.g. reference range is &lt;=2.3).</t>
   </si>
   <si>
-    <t xml:space="preserve">obs-3
-</t>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+  </si>
+  <si>
+    <t>ele-1
+obs-3</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
   </si>
   <si>
     <t>OBX-7</t>
@@ -2069,7 +2104,17 @@
     <t>The age at which this reference range is applicable. This is a neonatal age (e.g. number of weeks at term) if the meaning says so.</t>
   </si>
   <si>
+    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
+  </si>
+  <si>
     <t>Some analytes vary greatly over age.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
+  </si>
+  <si>
+    <t>NR and also possibly SN (but see also quantity)</t>
   </si>
   <si>
     <t>outboundRelationship[typeCode=PRCN].targetObservationCriterion[code="age"].value</t>
@@ -2100,7 +2145,7 @@
     <t>Used when reporting vital signs panel components.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -2122,7 +2167,7 @@
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
   </si>
   <si>
-    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.</t>
+    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -2134,7 +2179,7 @@
     <t>Used when reporting systolic and diastolic blood pressure.</t>
   </si>
   <si>
-    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/observation.html#notes) below.</t>
+    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
@@ -2197,7 +2242,7 @@
     <t>Vital Sign Value recorded with UCUM.</t>
   </si>
   <si>
-    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/observation.html#notes) below.</t>
+    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
     <t>Common UCUM units for recording Vital Signs.</t>
@@ -2206,8 +2251,8 @@
     <t>http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
   </si>
   <si>
-    <t xml:space="preserve">vs-3
-</t>
+    <t>ele-1
+vs-3</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
@@ -2226,8 +2271,8 @@
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
   </si>
   <si>
-    <t>obs-6
-vs-3</t>
+    <t>ele-1
+obs-6vs-3</t>
   </si>
   <si>
     <t>Observation.component.interpretation</t>
@@ -3073,10 +3118,10 @@
         <v>93</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>82</v>
@@ -3088,7 +3133,7 @@
         <v>82</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="AO4" t="s" s="2">
         <v>82</v>
@@ -3099,10 +3144,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -3125,13 +3170,13 @@
         <v>82</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -3182,7 +3227,7 @@
         <v>82</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
@@ -3206,7 +3251,7 @@
         <v>82</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AO5" t="s" s="2">
         <v>82</v>
@@ -3217,14 +3262,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -3243,16 +3288,16 @@
         <v>82</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3290,19 +3335,19 @@
         <v>82</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
@@ -3311,10 +3356,10 @@
         <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>82</v>
@@ -3326,7 +3371,7 @@
         <v>82</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>82</v>
@@ -3337,10 +3382,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -3366,13 +3411,13 @@
         <v>95</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3422,7 +3467,7 @@
         <v>82</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
@@ -3431,10 +3476,10 @@
         <v>93</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>82</v>
@@ -3446,7 +3491,7 @@
         <v>82</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>82</v>
@@ -3457,10 +3502,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3483,16 +3528,16 @@
         <v>94</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3542,7 +3587,7 @@
         <v>82</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
@@ -3551,10 +3596,10 @@
         <v>93</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>82</v>
@@ -3566,7 +3611,7 @@
         <v>82</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>82</v>
@@ -3577,10 +3622,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3603,16 +3648,16 @@
         <v>94</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3662,7 +3707,7 @@
         <v>82</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
@@ -3671,10 +3716,10 @@
         <v>93</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>82</v>
@@ -3686,7 +3731,7 @@
         <v>82</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>82</v>
@@ -3697,10 +3742,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3723,16 +3768,16 @@
         <v>94</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3782,7 +3827,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3791,10 +3836,10 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>82</v>
@@ -3806,7 +3851,7 @@
         <v>82</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>82</v>
@@ -3817,10 +3862,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3843,16 +3888,16 @@
         <v>94</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3878,13 +3923,13 @@
         <v>82</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>82</v>
@@ -3902,7 +3947,7 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3911,10 +3956,10 @@
         <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>82</v>
@@ -3923,10 +3968,10 @@
         <v>82</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>82</v>
@@ -3937,10 +3982,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3963,16 +4008,16 @@
         <v>94</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3998,13 +4043,13 @@
         <v>82</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>82</v>
@@ -4022,7 +4067,7 @@
         <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -4031,10 +4076,10 @@
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>82</v>
@@ -4043,10 +4088,10 @@
         <v>82</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>82</v>
@@ -4057,10 +4102,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -4083,16 +4128,16 @@
         <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -4142,7 +4187,7 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -4151,10 +4196,10 @@
         <v>93</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>82</v>
@@ -4166,7 +4211,7 @@
         <v>82</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>82</v>
@@ -4177,10 +4222,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -4203,16 +4248,16 @@
         <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -4238,13 +4283,13 @@
         <v>82</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>82</v>
@@ -4262,7 +4307,7 @@
         <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -4271,10 +4316,10 @@
         <v>93</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>82</v>
@@ -4286,7 +4331,7 @@
         <v>82</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>82</v>
@@ -4297,14 +4342,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -4323,16 +4368,16 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4382,7 +4427,7 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -4391,10 +4436,10 @@
         <v>93</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>82</v>
@@ -4406,7 +4451,7 @@
         <v>82</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>82</v>
@@ -4417,14 +4462,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4443,16 +4488,16 @@
         <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4502,7 +4547,7 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4526,7 +4571,7 @@
         <v>82</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>82</v>
@@ -4537,14 +4582,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4563,15 +4608,17 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>82</v>
@@ -4608,17 +4655,19 @@
         <v>82</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AC17" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="AD17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4627,10 +4676,10 @@
         <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>82</v>
@@ -4642,7 +4691,7 @@
         <v>82</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>82</v>
@@ -4653,13 +4702,13 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>82</v>
@@ -4681,13 +4730,13 @@
         <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4738,7 +4787,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4747,10 +4796,10 @@
         <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>82</v>
@@ -4773,13 +4822,13 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>82</v>
@@ -4801,13 +4850,13 @@
         <v>82</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4858,7 +4907,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4867,10 +4916,10 @@
         <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>207</v>
+        <v>105</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>82</v>
@@ -4893,13 +4942,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>82</v>
@@ -4921,13 +4970,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4978,7 +5027,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4987,10 +5036,10 @@
         <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>207</v>
+        <v>105</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>82</v>
@@ -5013,10 +5062,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -5039,13 +5088,13 @@
         <v>82</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -5096,7 +5145,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -5120,7 +5169,7 @@
         <v>82</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -5131,10 +5180,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5157,13 +5206,13 @@
         <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -5202,19 +5251,19 @@
         <v>82</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -5223,10 +5272,10 @@
         <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>82</v>
@@ -5249,10 +5298,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5275,16 +5324,16 @@
         <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5292,7 +5341,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>82</v>
@@ -5334,7 +5383,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>93</v>
@@ -5358,7 +5407,7 @@
         <v>82</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -5369,10 +5418,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5395,13 +5444,13 @@
         <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5428,11 +5477,11 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
@@ -5450,7 +5499,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5459,10 +5508,10 @@
         <v>93</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>82</v>
@@ -5474,7 +5523,7 @@
         <v>82</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5485,10 +5534,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5511,13 +5560,13 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5568,7 +5617,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5592,7 +5641,7 @@
         <v>82</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5603,14 +5652,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5629,16 +5678,16 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5676,19 +5725,19 @@
         <v>82</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5697,10 +5746,10 @@
         <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>82</v>
@@ -5712,7 +5761,7 @@
         <v>82</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5723,10 +5772,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5749,19 +5798,19 @@
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5810,7 +5859,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5819,10 +5868,10 @@
         <v>81</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>82</v>
@@ -5831,10 +5880,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5845,10 +5894,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5871,13 +5920,13 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5928,7 +5977,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5952,7 +6001,7 @@
         <v>82</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5963,14 +6012,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5989,16 +6038,16 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -6036,19 +6085,19 @@
         <v>82</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -6057,10 +6106,10 @@
         <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>82</v>
@@ -6072,7 +6121,7 @@
         <v>82</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -6083,10 +6132,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6109,19 +6158,19 @@
         <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -6170,7 +6219,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -6179,10 +6228,10 @@
         <v>93</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>82</v>
@@ -6191,10 +6240,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -6205,10 +6254,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6231,16 +6280,16 @@
         <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6290,7 +6339,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6299,10 +6348,10 @@
         <v>93</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>82</v>
@@ -6311,10 +6360,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6325,10 +6374,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6351,17 +6400,19 @@
         <v>94</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O32" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -6410,7 +6461,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6419,10 +6470,10 @@
         <v>93</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>82</v>
@@ -6431,10 +6482,10 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
@@ -6445,10 +6496,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6471,17 +6522,19 @@
         <v>94</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6530,7 +6583,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6539,10 +6592,10 @@
         <v>93</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -6551,10 +6604,10 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6565,10 +6618,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6591,19 +6644,19 @@
         <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6652,7 +6705,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6661,10 +6714,10 @@
         <v>93</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
@@ -6673,10 +6726,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6687,10 +6740,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6713,19 +6766,19 @@
         <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6774,7 +6827,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6783,10 +6836,10 @@
         <v>93</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>82</v>
@@ -6795,10 +6848,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6809,13 +6862,13 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>82</v>
@@ -6837,13 +6890,13 @@
         <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6894,7 +6947,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6903,10 +6956,10 @@
         <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>207</v>
+        <v>105</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>82</v>
@@ -6929,13 +6982,13 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>82</v>
@@ -6957,13 +7010,13 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -7014,7 +7067,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -7023,10 +7076,10 @@
         <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>207</v>
+        <v>105</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>82</v>
@@ -7049,14 +7102,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -7075,19 +7128,19 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -7124,19 +7177,19 @@
         <v>82</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -7145,10 +7198,10 @@
         <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>82</v>
@@ -7160,7 +7213,7 @@
         <v>82</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -7171,10 +7224,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7197,17 +7250,17 @@
         <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7256,7 +7309,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7265,25 +7318,25 @@
         <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>82</v>
@@ -7291,14 +7344,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -7317,17 +7370,19 @@
         <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -7376,7 +7431,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7385,22 +7440,22 @@
         <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>105</v>
+        <v>334</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -7411,14 +7466,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7437,16 +7492,16 @@
         <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7496,7 +7551,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7505,22 +7560,22 @@
         <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>105</v>
+        <v>334</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7531,10 +7586,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7557,19 +7612,19 @@
         <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7594,11 +7649,13 @@
         <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="Y42" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="Z42" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
@@ -7616,7 +7673,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>93</v>
@@ -7625,25 +7682,25 @@
         <v>93</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>82</v>
@@ -7651,10 +7708,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7677,19 +7734,19 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7714,29 +7771,29 @@
         <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7745,10 +7802,10 @@
         <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>82</v>
@@ -7757,13 +7814,13 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>82</v>
+        <v>367</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>82</v>
@@ -7771,13 +7828,13 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>82</v>
@@ -7799,19 +7856,19 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7836,13 +7893,13 @@
         <v>82</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>82</v>
@@ -7860,7 +7917,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7869,10 +7926,10 @@
         <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>82</v>
@@ -7881,13 +7938,13 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>82</v>
+        <v>367</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>82</v>
@@ -7895,10 +7952,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7921,13 +7978,13 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7978,7 +8035,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -8002,7 +8059,7 @@
         <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -8013,14 +8070,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -8039,16 +8096,16 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -8086,19 +8143,19 @@
         <v>82</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -8107,10 +8164,10 @@
         <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -8122,7 +8179,7 @@
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -8133,10 +8190,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8159,19 +8216,19 @@
         <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -8220,7 +8277,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8229,10 +8286,10 @@
         <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>82</v>
@@ -8241,10 +8298,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8255,10 +8312,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8281,13 +8338,13 @@
         <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -8338,7 +8395,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8362,7 +8419,7 @@
         <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8373,14 +8430,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -8399,16 +8456,16 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8446,19 +8503,19 @@
         <v>82</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8467,10 +8524,10 @@
         <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>82</v>
@@ -8482,7 +8539,7 @@
         <v>82</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8493,10 +8550,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8519,26 +8576,26 @@
         <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>82</v>
@@ -8580,7 +8637,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8589,10 +8646,10 @@
         <v>93</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
@@ -8601,10 +8658,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8615,10 +8672,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8641,16 +8698,16 @@
         <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8700,7 +8757,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8709,10 +8766,10 @@
         <v>93</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>82</v>
@@ -8721,10 +8778,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8735,10 +8792,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8761,24 +8818,26 @@
         <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="S52" t="s" s="2">
         <v>82</v>
@@ -8820,7 +8879,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8829,10 +8888,10 @@
         <v>93</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>82</v>
@@ -8841,10 +8900,10 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8855,10 +8914,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8881,17 +8940,19 @@
         <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O53" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8901,7 +8962,7 @@
         <v>82</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>82</v>
@@ -8940,7 +9001,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8949,10 +9010,10 @@
         <v>93</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>82</v>
@@ -8961,10 +9022,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8975,10 +9036,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9001,19 +9062,19 @@
         <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -9062,7 +9123,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -9071,10 +9132,10 @@
         <v>93</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>82</v>
@@ -9083,10 +9144,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -9097,10 +9158,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9123,19 +9184,19 @@
         <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -9184,7 +9245,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9193,10 +9254,10 @@
         <v>93</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>82</v>
@@ -9205,10 +9266,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -9219,14 +9280,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -9245,19 +9306,19 @@
         <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -9282,11 +9343,11 @@
         <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
@@ -9304,7 +9365,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>93</v>
@@ -9313,36 +9374,36 @@
         <v>93</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9365,13 +9426,13 @@
         <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9422,7 +9483,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9446,7 +9507,7 @@
         <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9457,14 +9518,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9483,16 +9544,16 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9530,19 +9591,19 @@
         <v>82</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9551,10 +9612,10 @@
         <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>82</v>
@@ -9566,7 +9627,7 @@
         <v>82</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9577,10 +9638,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9603,19 +9664,19 @@
         <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9664,7 +9725,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9673,10 +9734,10 @@
         <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>82</v>
@@ -9685,10 +9746,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9699,10 +9760,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9725,13 +9786,13 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9782,7 +9843,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9806,7 +9867,7 @@
         <v>82</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9817,14 +9878,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9843,16 +9904,16 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9890,19 +9951,19 @@
         <v>82</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9911,10 +9972,10 @@
         <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>82</v>
@@ -9926,7 +9987,7 @@
         <v>82</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9937,10 +9998,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9963,19 +10024,19 @@
         <v>94</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -10024,7 +10085,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -10033,10 +10094,10 @@
         <v>93</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>82</v>
@@ -10045,10 +10106,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -10059,10 +10120,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10085,16 +10146,16 @@
         <v>94</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -10144,7 +10205,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -10153,10 +10214,10 @@
         <v>93</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>82</v>
@@ -10165,10 +10226,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -10179,10 +10240,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10205,17 +10266,19 @@
         <v>94</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O64" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -10264,7 +10327,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10273,10 +10336,10 @@
         <v>93</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>82</v>
@@ -10285,10 +10348,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -10299,10 +10362,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10325,17 +10388,19 @@
         <v>94</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O65" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -10384,7 +10449,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10393,10 +10458,10 @@
         <v>93</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>82</v>
@@ -10405,10 +10470,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10419,10 +10484,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10445,19 +10510,19 @@
         <v>94</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10506,7 +10571,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10515,10 +10580,10 @@
         <v>93</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>82</v>
@@ -10527,10 +10592,10 @@
         <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10541,10 +10606,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10567,19 +10632,19 @@
         <v>94</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10628,7 +10693,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10637,10 +10702,10 @@
         <v>93</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>82</v>
@@ -10649,10 +10714,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10663,10 +10728,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10689,19 +10754,19 @@
         <v>94</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
@@ -10750,7 +10815,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10759,25 +10824,25 @@
         <v>93</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>105</v>
+        <v>334</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>82</v>
@@ -10785,10 +10850,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10811,16 +10876,16 @@
         <v>94</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10870,7 +10935,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10879,10 +10944,10 @@
         <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>105</v>
+        <v>334</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>82</v>
@@ -10891,13 +10956,13 @@
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>82</v>
@@ -10905,14 +10970,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10931,19 +10996,19 @@
         <v>94</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10992,7 +11057,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -11001,25 +11066,25 @@
         <v>93</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>105</v>
+        <v>334</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>82</v>
@@ -11027,14 +11092,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -11053,19 +11118,19 @@
         <v>94</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -11114,7 +11179,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -11123,25 +11188,25 @@
         <v>93</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>82</v>
@@ -11149,10 +11214,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11175,16 +11240,16 @@
         <v>94</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11234,7 +11299,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11243,10 +11308,10 @@
         <v>93</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>82</v>
@@ -11255,13 +11320,13 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="AP72" t="s" s="2">
         <v>82</v>
@@ -11269,10 +11334,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11295,17 +11360,19 @@
         <v>94</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="O73" t="s" s="2">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11354,7 +11421,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11363,25 +11430,25 @@
         <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>105</v>
+        <v>334</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="AP73" t="s" s="2">
         <v>82</v>
@@ -11389,10 +11456,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11415,19 +11482,19 @@
         <v>94</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11476,7 +11543,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11485,36 +11552,36 @@
         <v>93</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>477</v>
+        <v>485</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11537,13 +11604,13 @@
         <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11594,7 +11661,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11618,7 +11685,7 @@
         <v>82</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11629,14 +11696,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11655,16 +11722,16 @@
         <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11702,19 +11769,19 @@
         <v>82</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11723,10 +11790,10 @@
         <v>81</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>82</v>
@@ -11738,7 +11805,7 @@
         <v>82</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>82</v>
@@ -11749,10 +11816,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11775,19 +11842,19 @@
         <v>94</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>82</v>
@@ -11836,7 +11903,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11845,10 +11912,10 @@
         <v>93</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>82</v>
@@ -11857,10 +11924,10 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
@@ -11871,10 +11938,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11897,23 +11964,25 @@
         <v>94</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O78" t="s" s="2">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q78" t="s" s="2">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>82</v>
@@ -11934,13 +12003,13 @@
         <v>82</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>82</v>
@@ -11958,7 +12027,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11967,10 +12036,10 @@
         <v>93</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>82</v>
@@ -11979,10 +12048,10 @@
         <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
@@ -11993,10 +12062,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12019,17 +12088,19 @@
         <v>94</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O79" t="s" s="2">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -12078,7 +12149,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -12087,10 +12158,10 @@
         <v>93</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>82</v>
@@ -12099,10 +12170,10 @@
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -12113,10 +12184,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12139,17 +12210,19 @@
         <v>94</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="O80" t="s" s="2">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -12159,7 +12232,7 @@
         <v>82</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>82</v>
@@ -12198,7 +12271,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12207,22 +12280,22 @@
         <v>93</v>
       </c>
       <c r="AI80" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="AJ80" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>504</v>
-      </c>
       <c r="AN80" t="s" s="2">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -12233,10 +12306,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12259,19 +12332,19 @@
         <v>94</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12296,13 +12369,13 @@
         <v>82</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>82</v>
@@ -12320,7 +12393,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12329,10 +12402,10 @@
         <v>93</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>82</v>
@@ -12341,10 +12414,10 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -12355,10 +12428,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12381,19 +12454,19 @@
         <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
@@ -12418,13 +12491,13 @@
         <v>82</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>82</v>
@@ -12442,7 +12515,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12451,10 +12524,10 @@
         <v>93</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>82</v>
@@ -12463,10 +12536,10 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12477,10 +12550,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12503,13 +12576,13 @@
         <v>82</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12560,7 +12633,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12584,7 +12657,7 @@
         <v>82</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12595,14 +12668,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12621,16 +12694,16 @@
         <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12668,19 +12741,19 @@
         <v>82</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AD84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12689,10 +12762,10 @@
         <v>81</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>82</v>
@@ -12704,7 +12777,7 @@
         <v>82</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12715,10 +12788,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12741,19 +12814,19 @@
         <v>94</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12802,7 +12875,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12811,10 +12884,10 @@
         <v>81</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>82</v>
@@ -12823,10 +12896,10 @@
         <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12837,10 +12910,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12863,13 +12936,13 @@
         <v>82</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12920,7 +12993,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12944,7 +13017,7 @@
         <v>82</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12955,14 +13028,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12981,16 +13054,16 @@
         <v>82</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -13028,19 +13101,19 @@
         <v>82</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -13049,10 +13122,10 @@
         <v>81</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>82</v>
@@ -13064,7 +13137,7 @@
         <v>82</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -13075,10 +13148,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13101,19 +13174,19 @@
         <v>94</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -13162,7 +13235,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13171,10 +13244,10 @@
         <v>93</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>82</v>
@@ -13183,10 +13256,10 @@
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>82</v>
@@ -13197,10 +13270,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13223,16 +13296,16 @@
         <v>94</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -13282,7 +13355,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13291,10 +13364,10 @@
         <v>93</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>82</v>
@@ -13303,10 +13376,10 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>
@@ -13317,10 +13390,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13343,17 +13416,19 @@
         <v>94</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O90" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
@@ -13402,7 +13477,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13411,10 +13486,10 @@
         <v>93</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>82</v>
@@ -13423,10 +13498,10 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>82</v>
@@ -13437,10 +13512,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13463,17 +13538,19 @@
         <v>94</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O91" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13522,7 +13599,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13531,10 +13608,10 @@
         <v>93</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>82</v>
@@ -13543,10 +13620,10 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13557,10 +13634,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13583,19 +13660,19 @@
         <v>94</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13644,7 +13721,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13653,10 +13730,10 @@
         <v>93</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>82</v>
@@ -13665,10 +13742,10 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>82</v>
@@ -13679,10 +13756,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13705,19 +13782,19 @@
         <v>94</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13766,7 +13843,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13775,10 +13852,10 @@
         <v>93</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>82</v>
@@ -13787,10 +13864,10 @@
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>82</v>
@@ -13801,14 +13878,14 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13827,19 +13904,19 @@
         <v>82</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
@@ -13864,13 +13941,13 @@
         <v>82</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>82</v>
@@ -13888,7 +13965,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13897,36 +13974,36 @@
         <v>81</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>553</v>
+        <v>562</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13949,19 +14026,19 @@
         <v>82</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>82</v>
@@ -14010,7 +14087,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -14019,10 +14096,10 @@
         <v>81</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>82</v>
@@ -14031,10 +14108,10 @@
         <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -14045,10 +14122,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14071,16 +14148,16 @@
         <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -14106,13 +14183,13 @@
         <v>82</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>82</v>
@@ -14130,7 +14207,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -14139,36 +14216,36 @@
         <v>93</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP96" t="s" s="2">
-        <v>571</v>
+        <v>580</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14191,19 +14268,19 @@
         <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>82</v>
@@ -14228,11 +14305,11 @@
         <v>82</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y97" s="2"/>
       <c r="Z97" t="s" s="2">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>82</v>
@@ -14250,7 +14327,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14259,10 +14336,10 @@
         <v>93</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>82</v>
@@ -14271,10 +14348,10 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14285,10 +14362,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14311,16 +14388,16 @@
         <v>82</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -14370,7 +14447,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14379,36 +14456,36 @@
         <v>93</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>105</v>
+        <v>334</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP98" t="s" s="2">
-        <v>588</v>
+        <v>597</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14431,16 +14508,16 @@
         <v>82</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14490,7 +14567,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14499,36 +14576,36 @@
         <v>93</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>105</v>
+        <v>334</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP99" t="s" s="2">
-        <v>597</v>
+        <v>606</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14551,19 +14628,19 @@
         <v>82</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14612,7 +14689,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14621,10 +14698,10 @@
         <v>81</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>82</v>
@@ -14633,10 +14710,10 @@
         <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
@@ -14647,10 +14724,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14673,13 +14750,13 @@
         <v>82</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14730,7 +14807,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14754,7 +14831,7 @@
         <v>82</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>82</v>
@@ -14765,14 +14842,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14791,16 +14868,16 @@
         <v>82</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14838,19 +14915,19 @@
         <v>82</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AC102" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AD102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14859,10 +14936,10 @@
         <v>81</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>82</v>
@@ -14874,7 +14951,7 @@
         <v>82</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
@@ -14885,14 +14962,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14911,19 +14988,19 @@
         <v>94</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14972,7 +15049,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14981,10 +15058,10 @@
         <v>81</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>82</v>
@@ -14996,7 +15073,7 @@
         <v>82</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -15007,10 +15084,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15033,15 +15110,17 @@
         <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="N104" s="2"/>
+        <v>626</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>627</v>
+      </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>82</v>
@@ -15090,7 +15169,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15099,10 +15178,10 @@
         <v>93</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>105</v>
+        <v>629</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>82</v>
@@ -15111,10 +15190,10 @@
         <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
@@ -15125,10 +15204,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15151,15 +15230,17 @@
         <v>82</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>634</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>627</v>
+      </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15208,7 +15289,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15217,10 +15298,10 @@
         <v>93</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>105</v>
+        <v>629</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>82</v>
@@ -15229,10 +15310,10 @@
         <v>82</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
@@ -15243,10 +15324,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15269,19 +15350,19 @@
         <v>82</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15306,13 +15387,13 @@
         <v>82</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>82</v>
@@ -15330,7 +15411,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15339,22 +15420,22 @@
         <v>93</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
@@ -15365,10 +15446,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15391,19 +15472,19 @@
         <v>82</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
@@ -15428,13 +15509,13 @@
         <v>82</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>82</v>
@@ -15452,7 +15533,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15461,22 +15542,22 @@
         <v>81</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15487,10 +15568,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15513,13 +15594,13 @@
         <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -15570,7 +15651,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15594,7 +15675,7 @@
         <v>82</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
@@ -15605,14 +15686,14 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -15631,16 +15712,16 @@
         <v>82</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15678,19 +15759,19 @@
         <v>82</v>
       </c>
       <c r="AB109" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AC109" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AD109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15699,10 +15780,10 @@
         <v>81</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>82</v>
@@ -15714,7 +15795,7 @@
         <v>82</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
@@ -15725,10 +15806,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15751,19 +15832,19 @@
         <v>94</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15812,7 +15893,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15821,10 +15902,10 @@
         <v>81</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>82</v>
@@ -15833,10 +15914,10 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15847,10 +15928,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15873,13 +15954,13 @@
         <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -15930,7 +16011,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15954,7 +16035,7 @@
         <v>82</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -15965,14 +16046,14 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -15991,16 +16072,16 @@
         <v>82</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -16038,19 +16119,19 @@
         <v>82</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AC112" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AD112" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -16059,10 +16140,10 @@
         <v>81</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>82</v>
@@ -16074,7 +16155,7 @@
         <v>82</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
@@ -16085,10 +16166,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16111,19 +16192,19 @@
         <v>94</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -16172,7 +16253,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16181,10 +16262,10 @@
         <v>93</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>82</v>
@@ -16193,10 +16274,10 @@
         <v>82</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>82</v>
@@ -16207,10 +16288,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16233,16 +16314,16 @@
         <v>94</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16292,7 +16373,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16301,10 +16382,10 @@
         <v>93</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>82</v>
@@ -16313,10 +16394,10 @@
         <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
@@ -16327,10 +16408,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16353,17 +16434,19 @@
         <v>94</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N115" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O115" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16412,7 +16495,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16421,10 +16504,10 @@
         <v>93</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>82</v>
@@ -16433,10 +16516,10 @@
         <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
@@ -16447,10 +16530,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16473,17 +16556,19 @@
         <v>94</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N116" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O116" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16532,7 +16617,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16541,10 +16626,10 @@
         <v>93</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>82</v>
@@ -16553,10 +16638,10 @@
         <v>82</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
@@ -16567,10 +16652,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16593,19 +16678,19 @@
         <v>94</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16654,7 +16739,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16663,10 +16748,10 @@
         <v>93</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>82</v>
@@ -16675,10 +16760,10 @@
         <v>82</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
@@ -16689,10 +16774,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16715,19 +16800,19 @@
         <v>94</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16776,7 +16861,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16785,10 +16870,10 @@
         <v>93</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>82</v>
@@ -16797,10 +16882,10 @@
         <v>82</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>82</v>
@@ -16811,10 +16896,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16837,17 +16922,19 @@
         <v>82</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="N119" s="2"/>
+        <v>666</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>667</v>
+      </c>
       <c r="O119" t="s" s="2">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
@@ -16896,7 +16983,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16905,10 +16992,10 @@
         <v>93</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>105</v>
+        <v>669</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>82</v>
@@ -16917,10 +17004,10 @@
         <v>82</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>82</v>
+        <v>670</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>82</v>
@@ -16931,10 +17018,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>658</v>
+        <v>672</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>658</v>
+        <v>672</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16957,15 +17044,17 @@
         <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>659</v>
+        <v>673</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="N120" s="2"/>
+        <v>674</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
         <v>82</v>
@@ -17014,7 +17103,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>658</v>
+        <v>672</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -17023,10 +17112,10 @@
         <v>93</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>82</v>
@@ -17035,10 +17124,10 @@
         <v>82</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>82</v>
@@ -17049,10 +17138,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>662</v>
+        <v>676</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>662</v>
+        <v>676</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17075,16 +17164,16 @@
         <v>94</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>664</v>
+        <v>678</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>665</v>
+        <v>679</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -17134,7 +17223,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>662</v>
+        <v>676</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17143,10 +17232,10 @@
         <v>81</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>105</v>
+        <v>334</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>82</v>
@@ -17155,10 +17244,10 @@
         <v>82</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>667</v>
+        <v>681</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>668</v>
+        <v>682</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>82</v>
@@ -17169,10 +17258,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>669</v>
+        <v>683</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>669</v>
+        <v>683</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17195,16 +17284,16 @@
         <v>94</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>670</v>
+        <v>684</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>671</v>
+        <v>685</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>673</v>
+        <v>687</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
@@ -17254,7 +17343,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>669</v>
+        <v>683</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17263,10 +17352,10 @@
         <v>81</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>105</v>
+        <v>334</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>82</v>
@@ -17275,10 +17364,10 @@
         <v>82</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>667</v>
+        <v>681</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>674</v>
+        <v>688</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>82</v>
@@ -17289,10 +17378,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>675</v>
+        <v>689</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>675</v>
+        <v>689</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17315,19 +17404,19 @@
         <v>94</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>676</v>
+        <v>690</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>676</v>
+        <v>690</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>677</v>
+        <v>691</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>678</v>
+        <v>692</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>82</v>
@@ -17376,7 +17465,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>675</v>
+        <v>689</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -17385,10 +17474,10 @@
         <v>81</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>679</v>
+        <v>693</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>82</v>
@@ -17397,10 +17486,10 @@
         <v>82</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>681</v>
+        <v>695</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>82</v>
@@ -17411,10 +17500,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>682</v>
+        <v>696</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>682</v>
+        <v>696</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17437,13 +17526,13 @@
         <v>82</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -17494,7 +17583,7 @@
         <v>82</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17518,7 +17607,7 @@
         <v>82</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>82</v>
@@ -17529,14 +17618,14 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>683</v>
+        <v>697</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>683</v>
+        <v>697</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
@@ -17555,16 +17644,16 @@
         <v>82</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -17602,19 +17691,19 @@
         <v>82</v>
       </c>
       <c r="AB125" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AC125" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AD125" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17623,10 +17712,10 @@
         <v>81</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK125" t="s" s="2">
         <v>82</v>
@@ -17638,7 +17727,7 @@
         <v>82</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>82</v>
@@ -17649,14 +17738,14 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
@@ -17675,19 +17764,19 @@
         <v>94</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>82</v>
@@ -17736,7 +17825,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -17745,10 +17834,10 @@
         <v>81</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>82</v>
@@ -17760,7 +17849,7 @@
         <v>82</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>82</v>
@@ -17771,10 +17860,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>685</v>
+        <v>699</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>685</v>
+        <v>699</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17797,19 +17886,19 @@
         <v>94</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>686</v>
+        <v>700</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>687</v>
+        <v>701</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>688</v>
+        <v>702</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>689</v>
+        <v>703</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -17834,13 +17923,13 @@
         <v>82</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>690</v>
+        <v>704</v>
       </c>
       <c r="Z127" t="s" s="2">
-        <v>691</v>
+        <v>705</v>
       </c>
       <c r="AA127" t="s" s="2">
         <v>82</v>
@@ -17858,7 +17947,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>685</v>
+        <v>699</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>93</v>
@@ -17867,25 +17956,25 @@
         <v>93</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>692</v>
+        <v>706</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="AO127" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="AP127" t="s" s="2">
         <v>82</v>
@@ -17893,10 +17982,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>693</v>
+        <v>707</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>693</v>
+        <v>707</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17919,19 +18008,19 @@
         <v>94</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>694</v>
+        <v>708</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>695</v>
+        <v>709</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>696</v>
+        <v>710</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>697</v>
+        <v>711</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
@@ -17956,13 +18045,13 @@
         <v>82</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>698</v>
+        <v>712</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>699</v>
+        <v>713</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>82</v>
@@ -17980,7 +18069,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>693</v>
+        <v>707</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -17989,36 +18078,36 @@
         <v>93</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>700</v>
+        <v>714</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>701</v>
+        <v>715</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP128" t="s" s="2">
-        <v>477</v>
+        <v>485</v>
       </c>
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>702</v>
+        <v>716</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>702</v>
+        <v>716</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18041,19 +18130,19 @@
         <v>82</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>703</v>
+        <v>717</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>704</v>
+        <v>718</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>705</v>
+        <v>719</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -18078,13 +18167,13 @@
         <v>82</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="Z129" t="s" s="2">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>82</v>
@@ -18102,7 +18191,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>702</v>
+        <v>716</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18111,10 +18200,10 @@
         <v>93</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>706</v>
+        <v>720</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>82</v>
@@ -18123,10 +18212,10 @@
         <v>82</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>82</v>
@@ -18137,14 +18226,14 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>707</v>
+        <v>721</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>707</v>
+        <v>721</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
@@ -18163,19 +18252,19 @@
         <v>82</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
@@ -18200,13 +18289,13 @@
         <v>82</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="Z130" t="s" s="2">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>82</v>
@@ -18224,7 +18313,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>707</v>
+        <v>721</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18233,36 +18322,36 @@
         <v>81</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP130" t="s" s="2">
-        <v>553</v>
+        <v>562</v>
       </c>
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>708</v>
+        <v>722</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>708</v>
+        <v>722</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18288,16 +18377,16 @@
         <v>83</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>709</v>
+        <v>723</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>710</v>
+        <v>724</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>82</v>
@@ -18346,7 +18435,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>708</v>
+        <v>722</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18358,7 +18447,7 @@
         <v>82</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>82</v>
@@ -18367,10 +18456,10 @@
         <v>82</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>82</v>

--- a/main/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/main/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T08:34:04+00:00</t>
+    <t>2024-10-30T13:35:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/main/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:35:51+00:00</t>
+    <t>2024-11-18T15:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/main/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T15:35:30+00:00</t>
+    <t>2024-12-11T16:06:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/main/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$130</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5061" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5023" uniqueCount="721">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:06:25+00:00</t>
+    <t>2024-12-11T16:37:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -979,19 +979,6 @@
   <si>
     <t>Extension sur le Nombre de jours. 
 Utilisé pour les mesures du taux de glucose interstitiel et l’index de gestion de glycémie.</t>
-  </si>
-  <si>
-    <t>Observation.extension:MesDiabetisType</t>
-  </si>
-  <si>
-    <t>MesDiabetisType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/mesures/StructureDefinition/mesures-diabetis-type}
-</t>
-  </si>
-  <si>
-    <t>Type de diabète</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -2604,7 +2591,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP131"/>
+  <dimension ref="A1:AP130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6985,41 +6972,43 @@
         <v>309</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="N37" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O37" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>82</v>
       </c>
@@ -7055,19 +7044,19 @@
         <v>82</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>198</v>
+        <v>313</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -7091,7 +7080,7 @@
         <v>82</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -7102,14 +7091,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -7122,25 +7111,23 @@
         <v>82</v>
       </c>
       <c r="I38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J38" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="J38" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="K38" t="s" s="2">
-        <v>116</v>
+        <v>315</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -7177,19 +7164,19 @@
         <v>82</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -7201,22 +7188,22 @@
         <v>105</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>82</v>
+        <v>319</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>82</v>
+        <v>320</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>107</v>
+        <v>321</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>82</v>
+        <v>322</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>82</v>
@@ -7224,14 +7211,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>82</v>
+        <v>324</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -7250,17 +7237,19 @@
         <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O39" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7309,7 +7298,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7321,22 +7310,22 @@
         <v>105</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>106</v>
+        <v>330</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>326</v>
+        <v>82</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>82</v>
@@ -7344,14 +7333,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -7370,20 +7359,18 @@
         <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>82</v>
       </c>
@@ -7431,7 +7418,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7443,19 +7430,19 @@
         <v>105</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -7466,44 +7453,46 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>339</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>340</v>
+        <v>173</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
       </c>
@@ -7527,13 +7516,13 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>82</v>
+        <v>348</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>82</v>
+        <v>349</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
@@ -7551,34 +7540,34 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>334</v>
+        <v>106</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>82</v>
+        <v>351</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>82</v>
+        <v>354</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>82</v>
@@ -7586,10 +7575,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7600,31 +7589,31 @@
         <v>93</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>94</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7649,37 +7638,35 @@
         <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>105</v>
@@ -7688,19 +7675,19 @@
         <v>106</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>354</v>
+        <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>355</v>
+        <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>82</v>
@@ -7708,12 +7695,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="D43" t="s" s="2">
         <v>82</v>
       </c>
@@ -7722,7 +7711,7 @@
         <v>93</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>94</v>
@@ -7737,16 +7726,16 @@
         <v>228</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7774,26 +7763,28 @@
         <v>177</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AC43" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7814,13 +7805,13 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>82</v>
@@ -7828,26 +7819,24 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>82</v>
@@ -7856,20 +7845,16 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>228</v>
+        <v>109</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>360</v>
+        <v>110</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>82</v>
       </c>
@@ -7893,13 +7878,13 @@
         <v>82</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>364</v>
+        <v>82</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>365</v>
+        <v>82</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>82</v>
@@ -7917,19 +7902,19 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>359</v>
+        <v>112</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>82</v>
@@ -7938,13 +7923,13 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>367</v>
+        <v>82</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>368</v>
+        <v>113</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>82</v>
@@ -7952,21 +7937,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>82</v>
@@ -7978,15 +7963,17 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -8023,31 +8010,31 @@
         <v>82</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
@@ -8059,7 +8046,7 @@
         <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -8070,44 +8057,46 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>117</v>
+        <v>240</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>118</v>
+        <v>241</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
@@ -8143,19 +8132,19 @@
         <v>82</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>123</v>
+        <v>244</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -8167,7 +8156,7 @@
         <v>105</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -8176,10 +8165,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>107</v>
+        <v>246</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -8190,10 +8179,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8201,35 +8190,31 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>82</v>
       </c>
@@ -8277,19 +8262,19 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>82</v>
@@ -8298,10 +8283,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>246</v>
+        <v>113</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8312,21 +8297,21 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
@@ -8338,15 +8323,17 @@
         <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -8383,31 +8370,31 @@
         <v>82</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
@@ -8419,7 +8406,7 @@
         <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8430,50 +8417,52 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>117</v>
+        <v>253</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>118</v>
+        <v>254</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>82</v>
+        <v>380</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>82</v>
@@ -8503,31 +8492,31 @@
         <v>82</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>123</v>
+        <v>257</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>82</v>
@@ -8536,10 +8525,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>82</v>
+        <v>258</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>107</v>
+        <v>259</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8550,10 +8539,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8561,13 +8550,13 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>82</v>
@@ -8576,26 +8565,24 @@
         <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>384</v>
+        <v>82</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>82</v>
@@ -8637,7 +8624,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8658,10 +8645,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8672,10 +8659,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8683,13 +8670,13 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>82</v>
@@ -8698,24 +8685,26 @@
         <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>82</v>
+        <v>385</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>82</v>
@@ -8757,7 +8746,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8778,10 +8767,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8792,10 +8781,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B52" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8803,13 +8792,13 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>82</v>
@@ -8818,29 +8807,29 @@
         <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>272</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>389</v>
+        <v>82</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>82</v>
+        <v>385</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>82</v>
@@ -8879,7 +8868,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8900,10 +8889,10 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8914,10 +8903,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8940,19 +8929,19 @@
         <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>109</v>
+        <v>287</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8962,7 +8951,7 @@
         <v>82</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>389</v>
+        <v>82</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>82</v>
@@ -9001,7 +8990,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -9022,10 +9011,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -9036,10 +9025,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9062,19 +9051,19 @@
         <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>287</v>
+        <v>109</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -9123,7 +9112,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -9144,10 +9133,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -9158,24 +9147,24 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>82</v>
+        <v>393</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
@@ -9184,19 +9173,19 @@
         <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>109</v>
+        <v>228</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>297</v>
+        <v>394</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>298</v>
+        <v>395</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>299</v>
+        <v>396</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>300</v>
+        <v>397</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -9221,13 +9210,11 @@
         <v>82</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>82</v>
+        <v>398</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>82</v>
@@ -9245,10 +9232,10 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>301</v>
+        <v>392</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>93</v>
@@ -9260,66 +9247,62 @@
         <v>106</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>82</v>
+        <v>399</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>82</v>
+        <v>400</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>302</v>
+        <v>401</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>303</v>
+        <v>402</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>82</v>
+        <v>403</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>82</v>
+        <v>404</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>397</v>
+        <v>82</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>228</v>
+        <v>109</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>398</v>
+        <v>110</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>82</v>
       </c>
@@ -9343,11 +9326,13 @@
         <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="Y56" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z56" t="s" s="2">
-        <v>402</v>
+        <v>82</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
@@ -9365,56 +9350,56 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>396</v>
+        <v>112</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>403</v>
+        <v>82</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>404</v>
+        <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>405</v>
+        <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>406</v>
+        <v>113</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>407</v>
+        <v>82</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>408</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>82</v>
@@ -9426,15 +9411,17 @@
         <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -9471,31 +9458,31 @@
         <v>82</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>82</v>
@@ -9507,7 +9494,7 @@
         <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9518,14 +9505,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9541,21 +9528,23 @@
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>117</v>
+        <v>240</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>118</v>
+        <v>241</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
       </c>
@@ -9591,19 +9580,19 @@
         <v>82</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>123</v>
+        <v>244</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9615,7 +9604,7 @@
         <v>105</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>82</v>
@@ -9624,10 +9613,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>107</v>
+        <v>246</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9638,10 +9627,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9652,7 +9641,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>82</v>
@@ -9661,23 +9650,19 @@
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>82</v>
       </c>
@@ -9725,19 +9710,19 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>82</v>
@@ -9746,10 +9731,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>246</v>
+        <v>113</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9760,21 +9745,21 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>82</v>
@@ -9786,15 +9771,17 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9831,31 +9818,31 @@
         <v>82</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>82</v>
@@ -9867,7 +9854,7 @@
         <v>82</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9878,21 +9865,21 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
@@ -9901,21 +9888,23 @@
         <v>82</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>117</v>
+        <v>253</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>118</v>
+        <v>254</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
       </c>
@@ -9951,31 +9940,31 @@
         <v>82</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>123</v>
+        <v>257</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>82</v>
@@ -9984,10 +9973,10 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>82</v>
+        <v>258</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>107</v>
+        <v>259</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9998,10 +9987,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10009,7 +9998,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>93</v>
@@ -10024,20 +10013,18 @@
         <v>94</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>82</v>
       </c>
@@ -10085,7 +10072,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -10106,10 +10093,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -10120,10 +10107,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10131,7 +10118,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>93</v>
@@ -10146,18 +10133,20 @@
         <v>94</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
       </c>
@@ -10205,7 +10194,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -10226,10 +10215,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -10240,10 +10229,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10251,7 +10240,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>93</v>
@@ -10266,19 +10255,19 @@
         <v>94</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>272</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -10327,7 +10316,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10348,10 +10337,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -10362,10 +10351,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10388,19 +10377,19 @@
         <v>94</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>109</v>
+        <v>287</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -10449,7 +10438,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10470,10 +10459,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10484,10 +10473,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10510,19 +10499,19 @@
         <v>94</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>287</v>
+        <v>109</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10571,7 +10560,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10592,10 +10581,10 @@
         <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10606,10 +10595,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10617,13 +10606,13 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>82</v>
@@ -10632,19 +10621,19 @@
         <v>94</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>109</v>
+        <v>417</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>297</v>
+        <v>418</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>298</v>
+        <v>419</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>299</v>
+        <v>420</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>300</v>
+        <v>421</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10693,7 +10682,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>301</v>
+        <v>416</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10705,22 +10694,22 @@
         <v>105</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>106</v>
+        <v>330</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>82</v>
+        <v>422</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>302</v>
+        <v>423</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>303</v>
+        <v>424</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>82</v>
+        <v>425</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>82</v>
@@ -10728,10 +10717,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10739,13 +10728,13 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>82</v>
@@ -10754,20 +10743,18 @@
         <v>94</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>82</v>
       </c>
@@ -10815,34 +10802,34 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>426</v>
+        <v>82</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>82</v>
@@ -10850,21 +10837,21 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>82</v>
+        <v>433</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>82</v>
@@ -10876,18 +10863,20 @@
         <v>94</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
       </c>
@@ -10935,34 +10924,34 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>82</v>
+        <v>439</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>82</v>
@@ -10970,24 +10959,24 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>82</v>
@@ -10996,19 +10985,19 @@
         <v>94</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -11057,7 +11046,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -11066,25 +11055,25 @@
         <v>93</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>105</v>
+        <v>450</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>334</v>
+        <v>451</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>82</v>
@@ -11092,24 +11081,24 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>448</v>
+        <v>82</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>82</v>
@@ -11118,20 +11107,18 @@
         <v>94</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>449</v>
+        <v>131</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>453</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>82</v>
       </c>
@@ -11179,7 +11166,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -11188,25 +11175,25 @@
         <v>93</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>454</v>
+        <v>105</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>455</v>
+        <v>106</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>456</v>
+        <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>82</v>
@@ -11214,10 +11201,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11228,7 +11215,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>82</v>
@@ -11240,18 +11227,20 @@
         <v>94</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>131</v>
+        <v>464</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
@@ -11299,34 +11288,34 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>106</v>
+        <v>330</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>82</v>
+        <v>468</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="AP72" t="s" s="2">
         <v>82</v>
@@ -11334,10 +11323,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11348,10 +11337,10 @@
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>82</v>
@@ -11360,19 +11349,19 @@
         <v>94</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>332</v>
+        <v>475</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11421,45 +11410,45 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>105</v>
+        <v>477</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>334</v>
+        <v>106</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>472</v>
+        <v>82</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>82</v>
+        <v>478</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>475</v>
+        <v>82</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>82</v>
+        <v>481</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11473,29 +11462,25 @@
         <v>93</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>477</v>
+        <v>109</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>478</v>
+        <v>110</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>82</v>
       </c>
@@ -11543,7 +11528,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>476</v>
+        <v>112</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11552,47 +11537,47 @@
         <v>93</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>481</v>
+        <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>482</v>
+        <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>483</v>
+        <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>484</v>
+        <v>113</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>485</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>82</v>
@@ -11604,15 +11589,17 @@
         <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11649,31 +11636,31 @@
         <v>82</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>82</v>
@@ -11685,7 +11672,7 @@
         <v>82</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11696,21 +11683,21 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>82</v>
@@ -11719,21 +11706,23 @@
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>116</v>
+        <v>485</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>117</v>
+        <v>486</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>118</v>
+        <v>487</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O76" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
       </c>
@@ -11769,31 +11758,31 @@
         <v>82</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>123</v>
+        <v>490</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>82</v>
@@ -11802,10 +11791,10 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>82</v>
+        <v>491</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>107</v>
+        <v>492</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>82</v>
@@ -11816,10 +11805,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11836,30 +11825,32 @@
         <v>82</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J77" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>489</v>
+        <v>173</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>492</v>
+        <v>272</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>497</v>
+      </c>
       <c r="R77" t="s" s="2">
         <v>82</v>
       </c>
@@ -11879,13 +11870,13 @@
         <v>82</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>82</v>
+        <v>498</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>82</v>
+        <v>499</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>82</v>
@@ -11903,7 +11894,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11924,10 +11915,10 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
@@ -11938,10 +11929,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11958,32 +11949,30 @@
         <v>82</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>272</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q78" t="s" s="2">
-        <v>501</v>
-      </c>
+      <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
         <v>82</v>
       </c>
@@ -12003,13 +11992,13 @@
         <v>82</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>502</v>
+        <v>82</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>503</v>
+        <v>82</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>82</v>
@@ -12027,7 +12016,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -12048,10 +12037,10 @@
         <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
@@ -12062,10 +12051,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12073,7 +12062,7 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>93</v>
@@ -12088,19 +12077,19 @@
         <v>94</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>272</v>
+        <v>513</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -12110,7 +12099,7 @@
         <v>82</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>82</v>
+        <v>515</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>82</v>
@@ -12149,7 +12138,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -12158,7 +12147,7 @@
         <v>93</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>105</v>
+        <v>517</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>106</v>
@@ -12170,10 +12159,10 @@
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -12184,10 +12173,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12210,19 +12199,19 @@
         <v>94</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -12232,7 +12221,7 @@
         <v>82</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>519</v>
+        <v>82</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>82</v>
@@ -12247,13 +12236,13 @@
         <v>82</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>82</v>
+        <v>524</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>82</v>
+        <v>524</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>82</v>
@@ -12271,7 +12260,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12280,7 +12269,7 @@
         <v>93</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>521</v>
+        <v>105</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>106</v>
@@ -12292,10 +12281,10 @@
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -12306,10 +12295,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12317,34 +12306,34 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12369,13 +12358,13 @@
         <v>82</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>231</v>
+        <v>153</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>82</v>
@@ -12393,7 +12382,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12402,7 +12391,7 @@
         <v>93</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>105</v>
+        <v>534</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>106</v>
@@ -12414,10 +12403,10 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>512</v>
+        <v>107</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -12428,10 +12417,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12445,7 +12434,7 @@
         <v>93</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>82</v>
@@ -12454,20 +12443,16 @@
         <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>228</v>
+        <v>109</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>532</v>
+        <v>110</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>535</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>82</v>
       </c>
@@ -12491,13 +12476,13 @@
         <v>82</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>536</v>
+        <v>82</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>537</v>
+        <v>82</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>82</v>
@@ -12515,7 +12500,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>531</v>
+        <v>112</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12524,10 +12509,10 @@
         <v>93</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>538</v>
+        <v>82</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>82</v>
@@ -12536,10 +12521,10 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>539</v>
+        <v>113</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12550,21 +12535,21 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>82</v>
@@ -12576,15 +12561,17 @@
         <v>82</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>82</v>
@@ -12621,31 +12608,31 @@
         <v>82</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AD83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>82</v>
@@ -12657,7 +12644,7 @@
         <v>82</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12668,14 +12655,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12691,21 +12678,23 @@
         <v>82</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>117</v>
+        <v>240</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>118</v>
+        <v>241</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O84" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
@@ -12741,19 +12730,19 @@
         <v>82</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="AD84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>123</v>
+        <v>244</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12765,7 +12754,7 @@
         <v>105</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>82</v>
@@ -12774,10 +12763,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>107</v>
+        <v>246</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12788,10 +12777,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12802,7 +12791,7 @@
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>82</v>
@@ -12811,23 +12800,19 @@
         <v>82</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>82</v>
       </c>
@@ -12875,19 +12860,19 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>82</v>
@@ -12896,10 +12881,10 @@
         <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>246</v>
+        <v>113</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12910,21 +12895,21 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>82</v>
@@ -12936,15 +12921,17 @@
         <v>82</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12981,31 +12968,31 @@
         <v>82</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>82</v>
@@ -13017,7 +13004,7 @@
         <v>82</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -13028,21 +13015,21 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>82</v>
@@ -13051,21 +13038,23 @@
         <v>82</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>117</v>
+        <v>253</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>118</v>
+        <v>254</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O87" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
       </c>
@@ -13101,31 +13090,31 @@
         <v>82</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>123</v>
+        <v>257</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>82</v>
@@ -13134,10 +13123,10 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>82</v>
+        <v>258</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>107</v>
+        <v>259</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -13148,10 +13137,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13159,7 +13148,7 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>93</v>
@@ -13174,20 +13163,18 @@
         <v>94</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>82</v>
       </c>
@@ -13235,7 +13222,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13256,10 +13243,10 @@
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>82</v>
@@ -13270,10 +13257,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13281,7 +13268,7 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>93</v>
@@ -13296,18 +13283,20 @@
         <v>94</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
       </c>
@@ -13355,7 +13344,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13376,10 +13365,10 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>
@@ -13390,10 +13379,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13401,7 +13390,7 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>93</v>
@@ -13416,19 +13405,19 @@
         <v>94</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>272</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
@@ -13477,7 +13466,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13498,10 +13487,10 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>82</v>
@@ -13512,10 +13501,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13538,19 +13527,19 @@
         <v>94</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>109</v>
+        <v>287</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13599,7 +13588,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13620,10 +13609,10 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13634,10 +13623,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13660,19 +13649,19 @@
         <v>94</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>287</v>
+        <v>109</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13721,7 +13710,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13742,10 +13731,10 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>82</v>
@@ -13756,21 +13745,21 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>82</v>
+        <v>548</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>82</v>
@@ -13779,22 +13768,22 @@
         <v>82</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>109</v>
+        <v>228</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>297</v>
+        <v>549</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>298</v>
+        <v>550</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>299</v>
+        <v>551</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>300</v>
+        <v>552</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13819,13 +13808,13 @@
         <v>82</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>82</v>
+        <v>553</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>82</v>
+        <v>554</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>82</v>
@@ -13843,13 +13832,13 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>301</v>
+        <v>547</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>105</v>
@@ -13861,31 +13850,31 @@
         <v>82</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>82</v>
+        <v>555</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>302</v>
+        <v>556</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>303</v>
+        <v>557</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>82</v>
+        <v>558</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>552</v>
+        <v>82</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13904,19 +13893,19 @@
         <v>82</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>228</v>
+        <v>560</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
@@ -13941,13 +13930,13 @@
         <v>82</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>557</v>
+        <v>82</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>558</v>
+        <v>82</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>82</v>
@@ -13965,7 +13954,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13983,27 +13972,27 @@
         <v>82</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>559</v>
+        <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>562</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14014,7 +14003,7 @@
         <v>80</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>82</v>
@@ -14026,20 +14015,18 @@
         <v>82</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>564</v>
+        <v>228</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>82</v>
       </c>
@@ -14063,13 +14050,13 @@
         <v>82</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>82</v>
+        <v>571</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>82</v>
+        <v>572</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>82</v>
@@ -14087,13 +14074,13 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>105</v>
@@ -14105,27 +14092,27 @@
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>82</v>
+        <v>573</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>82</v>
+        <v>576</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14139,7 +14126,7 @@
         <v>93</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>82</v>
@@ -14151,15 +14138,17 @@
         <v>228</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="O96" s="2"/>
+        <v>580</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>581</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>82</v>
       </c>
@@ -14183,13 +14172,11 @@
         <v>82</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>575</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="Y96" s="2"/>
       <c r="Z96" t="s" s="2">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>82</v>
@@ -14207,7 +14194,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -14225,27 +14212,27 @@
         <v>82</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>577</v>
+        <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP96" t="s" s="2">
-        <v>580</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14259,7 +14246,7 @@
         <v>93</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>82</v>
@@ -14268,20 +14255,18 @@
         <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>228</v>
+        <v>586</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>585</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>82</v>
       </c>
@@ -14305,11 +14290,13 @@
         <v>82</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="Y97" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z97" t="s" s="2">
-        <v>586</v>
+        <v>82</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>82</v>
@@ -14327,7 +14314,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14339,33 +14326,33 @@
         <v>105</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>106</v>
+        <v>330</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>82</v>
+        <v>590</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP97" t="s" s="2">
-        <v>82</v>
+        <v>593</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14379,7 +14366,7 @@
         <v>93</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>82</v>
@@ -14388,16 +14375,16 @@
         <v>82</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -14447,7 +14434,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14459,33 +14446,33 @@
         <v>105</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP98" t="s" s="2">
-        <v>597</v>
+        <v>602</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14496,10 +14483,10 @@
         <v>80</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>82</v>
@@ -14508,18 +14495,20 @@
         <v>82</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="O99" s="2"/>
+        <v>607</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>608</v>
+      </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
       </c>
@@ -14567,45 +14556,45 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>334</v>
+        <v>609</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>603</v>
+        <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP99" t="s" s="2">
-        <v>606</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14616,7 +14605,7 @@
         <v>80</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>82</v>
@@ -14628,20 +14617,16 @@
         <v>82</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>608</v>
+        <v>109</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>609</v>
+        <v>110</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>612</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>82</v>
       </c>
@@ -14689,19 +14674,19 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>607</v>
+        <v>112</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>613</v>
+        <v>82</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>82</v>
@@ -14710,10 +14695,10 @@
         <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>614</v>
+        <v>82</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>615</v>
+        <v>113</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
@@ -14724,21 +14709,21 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>82</v>
@@ -14750,15 +14735,17 @@
         <v>82</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N101" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>82</v>
@@ -14795,31 +14782,31 @@
         <v>82</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AC101" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AD101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>82</v>
@@ -14831,7 +14818,7 @@
         <v>82</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>82</v>
@@ -14842,14 +14829,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>115</v>
+        <v>615</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14862,24 +14849,26 @@
         <v>82</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>116</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>117</v>
+        <v>616</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>118</v>
+        <v>617</v>
       </c>
       <c r="N102" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="O102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
       </c>
@@ -14915,19 +14904,19 @@
         <v>82</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AC102" t="s" s="2">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="AD102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>123</v>
+        <v>618</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14962,46 +14951,44 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>619</v>
+        <v>82</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>116</v>
+        <v>620</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>82</v>
       </c>
@@ -15049,19 +15036,19 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>105</v>
+        <v>624</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>124</v>
+        <v>625</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>82</v>
@@ -15070,10 +15057,10 @@
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>82</v>
+        <v>626</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>107</v>
+        <v>627</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -15084,10 +15071,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15110,16 +15097,16 @@
         <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -15169,7 +15156,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15178,10 +15165,10 @@
         <v>93</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>82</v>
@@ -15190,7 +15177,7 @@
         <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>631</v>
@@ -15230,7 +15217,7 @@
         <v>82</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>624</v>
+        <v>228</v>
       </c>
       <c r="L105" t="s" s="2">
         <v>633</v>
@@ -15239,9 +15226,11 @@
         <v>634</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="O105" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>636</v>
+      </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
       </c>
@@ -15265,13 +15254,13 @@
         <v>82</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>82</v>
+        <v>637</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>82</v>
+        <v>638</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>82</v>
@@ -15298,22 +15287,22 @@
         <v>93</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>628</v>
+        <v>105</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>629</v>
+        <v>106</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>82</v>
+        <v>639</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>635</v>
+        <v>557</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
@@ -15324,10 +15313,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15338,7 +15327,7 @@
         <v>80</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>82</v>
@@ -15353,16 +15342,16 @@
         <v>228</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15387,37 +15376,37 @@
         <v>82</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="Y106" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF106" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="Z106" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>636</v>
-      </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>105</v>
@@ -15429,13 +15418,13 @@
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
@@ -15446,10 +15435,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15460,7 +15449,7 @@
         <v>80</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>82</v>
@@ -15472,20 +15461,16 @@
         <v>82</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>228</v>
+        <v>109</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>646</v>
+        <v>110</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>649</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>82</v>
       </c>
@@ -15509,13 +15494,13 @@
         <v>82</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>650</v>
+        <v>82</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>651</v>
+        <v>82</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>82</v>
@@ -15533,31 +15518,31 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>645</v>
+        <v>112</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>643</v>
+        <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>644</v>
+        <v>82</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>561</v>
+        <v>113</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15568,21 +15553,21 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>82</v>
@@ -15594,15 +15579,17 @@
         <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N108" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>82</v>
@@ -15639,31 +15626,31 @@
         <v>82</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AC108" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AD108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>82</v>
@@ -15675,7 +15662,7 @@
         <v>82</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
@@ -15686,14 +15673,14 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -15709,21 +15696,23 @@
         <v>82</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>117</v>
+        <v>240</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>118</v>
+        <v>241</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O109" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
       </c>
@@ -15759,19 +15748,19 @@
         <v>82</v>
       </c>
       <c r="AB109" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AC109" t="s" s="2">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="AD109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>123</v>
+        <v>244</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15783,7 +15772,7 @@
         <v>105</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>82</v>
@@ -15792,10 +15781,10 @@
         <v>82</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>107</v>
+        <v>246</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
@@ -15806,10 +15795,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15820,7 +15809,7 @@
         <v>80</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>82</v>
@@ -15829,23 +15818,19 @@
         <v>82</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>82</v>
       </c>
@@ -15893,19 +15878,19 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>82</v>
@@ -15914,10 +15899,10 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>246</v>
+        <v>113</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15928,21 +15913,21 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>82</v>
@@ -15954,15 +15939,17 @@
         <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N111" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>82</v>
@@ -15999,31 +15986,31 @@
         <v>82</v>
       </c>
       <c r="AB111" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AC111" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AD111" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>82</v>
@@ -16035,7 +16022,7 @@
         <v>82</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -16046,21 +16033,21 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>82</v>
@@ -16069,21 +16056,23 @@
         <v>82</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>117</v>
+        <v>253</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>118</v>
+        <v>254</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O112" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P112" t="s" s="2">
         <v>82</v>
       </c>
@@ -16119,31 +16108,31 @@
         <v>82</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AC112" t="s" s="2">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="AD112" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>123</v>
+        <v>257</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>82</v>
@@ -16152,10 +16141,10 @@
         <v>82</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>82</v>
+        <v>258</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>107</v>
+        <v>259</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
@@ -16166,10 +16155,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16177,7 +16166,7 @@
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>93</v>
@@ -16192,20 +16181,18 @@
         <v>94</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
         <v>82</v>
       </c>
@@ -16253,7 +16240,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16274,10 +16261,10 @@
         <v>82</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>82</v>
@@ -16288,10 +16275,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16299,7 +16286,7 @@
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>93</v>
@@ -16314,18 +16301,20 @@
         <v>94</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O114" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="P114" t="s" s="2">
         <v>82</v>
       </c>
@@ -16373,7 +16362,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16394,10 +16383,10 @@
         <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
@@ -16408,10 +16397,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16419,7 +16408,7 @@
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>93</v>
@@ -16434,19 +16423,19 @@
         <v>94</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="N115" t="s" s="2">
         <v>272</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16495,7 +16484,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16516,10 +16505,10 @@
         <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
@@ -16530,10 +16519,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16556,19 +16545,19 @@
         <v>94</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>109</v>
+        <v>287</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16617,7 +16606,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16638,10 +16627,10 @@
         <v>82</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
@@ -16652,10 +16641,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16678,19 +16667,19 @@
         <v>94</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>287</v>
+        <v>109</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16739,7 +16728,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16760,10 +16749,10 @@
         <v>82</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
@@ -16774,10 +16763,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16797,22 +16786,22 @@
         <v>82</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>109</v>
+        <v>660</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>297</v>
+        <v>661</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>298</v>
+        <v>662</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>299</v>
+        <v>663</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>300</v>
+        <v>664</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16861,7 +16850,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>301</v>
+        <v>659</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16873,7 +16862,7 @@
         <v>105</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>106</v>
+        <v>665</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>82</v>
@@ -16882,10 +16871,10 @@
         <v>82</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>302</v>
+        <v>666</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>303</v>
+        <v>667</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>82</v>
@@ -16896,10 +16885,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16922,20 +16911,18 @@
         <v>82</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>664</v>
+        <v>109</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>668</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
         <v>82</v>
       </c>
@@ -16983,7 +16970,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16995,7 +16982,7 @@
         <v>105</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>669</v>
+        <v>106</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>82</v>
@@ -17004,7 +16991,7 @@
         <v>82</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>670</v>
+        <v>626</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>671</v>
@@ -17032,7 +17019,7 @@
         <v>80</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>82</v>
@@ -17041,19 +17028,19 @@
         <v>82</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>109</v>
+        <v>673</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>272</v>
+        <v>676</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -17109,13 +17096,13 @@
         <v>80</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>106</v>
+        <v>330</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>82</v>
@@ -17124,10 +17111,10 @@
         <v>82</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>630</v>
+        <v>677</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>82</v>
@@ -17138,10 +17125,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17164,16 +17151,16 @@
         <v>94</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -17223,7 +17210,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17235,7 +17222,7 @@
         <v>105</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>82</v>
@@ -17244,10 +17231,10 @@
         <v>82</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>82</v>
@@ -17258,10 +17245,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17275,7 +17262,7 @@
         <v>81</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I122" t="s" s="2">
         <v>82</v>
@@ -17284,10 +17271,10 @@
         <v>94</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>684</v>
+        <v>604</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="M122" t="s" s="2">
         <v>686</v>
@@ -17295,7 +17282,9 @@
       <c r="N122" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="O122" s="2"/>
+      <c r="O122" t="s" s="2">
+        <v>688</v>
+      </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
       </c>
@@ -17343,7 +17332,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17355,7 +17344,7 @@
         <v>105</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>334</v>
+        <v>689</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>82</v>
@@ -17364,10 +17353,10 @@
         <v>82</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>82</v>
@@ -17378,10 +17367,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17392,32 +17381,28 @@
         <v>80</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H123" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I123" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>608</v>
+        <v>109</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>690</v>
+        <v>110</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>692</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
         <v>82</v>
       </c>
@@ -17465,19 +17450,19 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>689</v>
+        <v>112</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>693</v>
+        <v>82</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>82</v>
@@ -17486,10 +17471,10 @@
         <v>82</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>694</v>
+        <v>82</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>695</v>
+        <v>113</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>82</v>
@@ -17500,21 +17485,21 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>82</v>
@@ -17526,15 +17511,17 @@
         <v>82</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N124" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
         <v>82</v>
@@ -17571,31 +17558,31 @@
         <v>82</v>
       </c>
       <c r="AB124" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AC124" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AD124" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>82</v>
@@ -17607,7 +17594,7 @@
         <v>82</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>82</v>
@@ -17618,14 +17605,14 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>115</v>
+        <v>615</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
@@ -17638,24 +17625,26 @@
         <v>82</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K125" t="s" s="2">
         <v>116</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>117</v>
+        <v>616</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>118</v>
+        <v>617</v>
       </c>
       <c r="N125" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="O125" s="2"/>
+      <c r="O125" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="P125" t="s" s="2">
         <v>82</v>
       </c>
@@ -17691,19 +17680,19 @@
         <v>82</v>
       </c>
       <c r="AB125" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AC125" t="s" s="2">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="AD125" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>123</v>
+        <v>618</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17738,45 +17727,45 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
-        <v>619</v>
+        <v>82</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H126" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J126" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>116</v>
+        <v>228</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>620</v>
+        <v>696</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>621</v>
+        <v>697</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>119</v>
+        <v>698</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>316</v>
+        <v>699</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>82</v>
@@ -17801,13 +17790,13 @@
         <v>82</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>82</v>
+        <v>700</v>
       </c>
       <c r="Z126" t="s" s="2">
-        <v>82</v>
+        <v>701</v>
       </c>
       <c r="AA126" t="s" s="2">
         <v>82</v>
@@ -17825,34 +17814,34 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>622</v>
+        <v>695</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>82</v>
+        <v>702</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>82</v>
+        <v>401</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>107</v>
+        <v>402</v>
       </c>
       <c r="AO126" t="s" s="2">
-        <v>82</v>
+        <v>403</v>
       </c>
       <c r="AP126" t="s" s="2">
         <v>82</v>
@@ -17860,10 +17849,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17871,7 +17860,7 @@
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>93</v>
@@ -17886,19 +17875,19 @@
         <v>94</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>228</v>
+        <v>704</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>703</v>
+        <v>476</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -17926,10 +17915,10 @@
         <v>153</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="Z127" t="s" s="2">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="AA127" t="s" s="2">
         <v>82</v>
@@ -17947,16 +17936,16 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>105</v>
+        <v>710</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>106</v>
@@ -17965,27 +17954,27 @@
         <v>82</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>405</v>
+        <v>479</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>406</v>
+        <v>480</v>
       </c>
       <c r="AO127" t="s" s="2">
-        <v>407</v>
+        <v>82</v>
       </c>
       <c r="AP127" t="s" s="2">
-        <v>82</v>
+        <v>481</v>
       </c>
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18005,22 +17994,22 @@
         <v>82</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>708</v>
+        <v>228</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>480</v>
+        <v>531</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
@@ -18048,29 +18037,29 @@
         <v>153</v>
       </c>
       <c r="Y128" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF128" t="s" s="2">
         <v>712</v>
       </c>
-      <c r="Z128" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>707</v>
-      </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
       </c>
@@ -18078,7 +18067,7 @@
         <v>93</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>106</v>
@@ -18087,41 +18076,41 @@
         <v>82</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>715</v>
+        <v>82</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>483</v>
+        <v>107</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>484</v>
+        <v>535</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP128" t="s" s="2">
-        <v>485</v>
+        <v>82</v>
       </c>
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>82</v>
+        <v>548</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I129" t="s" s="2">
         <v>82</v>
@@ -18133,16 +18122,16 @@
         <v>228</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>717</v>
+        <v>549</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>718</v>
+        <v>550</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>719</v>
+        <v>551</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>535</v>
+        <v>552</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -18170,10 +18159,10 @@
         <v>153</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="Z129" t="s" s="2">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>82</v>
@@ -18191,16 +18180,16 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>720</v>
+        <v>105</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>106</v>
@@ -18209,31 +18198,31 @@
         <v>82</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>82</v>
+        <v>555</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>107</v>
+        <v>556</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP129" t="s" s="2">
-        <v>82</v>
+        <v>558</v>
       </c>
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
-        <v>552</v>
+        <v>82</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
@@ -18252,19 +18241,19 @@
         <v>82</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>228</v>
+        <v>83</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>553</v>
+        <v>719</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>554</v>
+        <v>720</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>555</v>
+        <v>607</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>556</v>
+        <v>608</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
@@ -18289,13 +18278,13 @@
         <v>82</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>557</v>
+        <v>82</v>
       </c>
       <c r="Z130" t="s" s="2">
-        <v>558</v>
+        <v>82</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>82</v>
@@ -18313,7 +18302,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18322,154 +18311,32 @@
         <v>81</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>559</v>
+        <v>82</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>560</v>
+        <v>610</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>561</v>
+        <v>611</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP130" t="s" s="2">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="131" hidden="true">
-      <c r="A131" t="s" s="2">
-        <v>722</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>722</v>
-      </c>
-      <c r="C131" s="2"/>
-      <c r="D131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E131" s="2"/>
-      <c r="F131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G131" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K131" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>723</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>724</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="P131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q131" s="2"/>
-      <c r="R131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>722</v>
-      </c>
-      <c r="AG131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH131" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM131" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="AN131" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="AO131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP131" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP131">
+  <autoFilter ref="A1:AP130">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -18479,7 +18346,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI130">
+  <conditionalFormatting sqref="A2:AI129">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/main/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/main/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:37:39+00:00</t>
+    <t>2024-12-13T13:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/main/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T13:36:55+00:00</t>
+    <t>2024-12-13T15:58:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-observation-glucose.xlsx
+++ b/main/ig/StructureDefinition-mesures-observation-glucose.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$130</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$119</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5023" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4601" uniqueCount="710">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T15:58:46+00:00</t>
+    <t>2024-12-18T16:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2039,43 +2039,10 @@
     <t>Need to be able to identify the target population for proper interpretation.</t>
   </si>
   <si>
-    <t>JDV_J148-ReferenceRangeAppliesTo-CISIS</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J148-ReferenceRangeAppliesTo-CISIS/FHIR/JDV-J148-ReferenceRangeAppliesTo-CISIS</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo.id</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo.extension</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo.coding</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo.coding.system</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo.coding.code</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo.text</t>
+    <t>Codes identifying the population the reference range applies to.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -2591,7 +2558,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP130"/>
+  <dimension ref="A1:AP119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2601,7 +2568,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="75.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="56.09375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.3046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="27.03125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -2625,7 +2592,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="112.42578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="91.78125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -15376,7 +15343,7 @@
         <v>82</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>231</v>
+        <v>163</v>
       </c>
       <c r="Y106" t="s" s="2">
         <v>646</v>
@@ -15461,16 +15428,20 @@
         <v>82</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>109</v>
+        <v>649</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>110</v>
+        <v>650</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
+        <v>651</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>653</v>
+      </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
       </c>
@@ -15518,7 +15489,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>112</v>
+        <v>648</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15527,10 +15498,10 @@
         <v>93</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>82</v>
+        <v>654</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>82</v>
@@ -15539,10 +15510,10 @@
         <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>82</v>
+        <v>655</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>113</v>
+        <v>656</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15553,21 +15524,21 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>82</v>
@@ -15579,16 +15550,16 @@
         <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>117</v>
+        <v>658</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>118</v>
+        <v>659</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>119</v>
+        <v>272</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15626,31 +15597,31 @@
         <v>82</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AC108" t="s" s="2">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="AD108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>123</v>
+        <v>657</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>82</v>
@@ -15659,10 +15630,10 @@
         <v>82</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>82</v>
+        <v>626</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>107</v>
+        <v>660</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
@@ -15673,10 +15644,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15699,20 +15670,18 @@
         <v>94</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>149</v>
+        <v>662</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>240</v>
+        <v>663</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>241</v>
+        <v>664</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>82</v>
       </c>
@@ -15760,7 +15729,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>244</v>
+        <v>661</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15772,7 +15741,7 @@
         <v>105</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>106</v>
+        <v>330</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>82</v>
@@ -15781,10 +15750,10 @@
         <v>82</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>245</v>
+        <v>666</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>246</v>
+        <v>667</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
@@ -15795,10 +15764,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>651</v>
+        <v>668</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>651</v>
+        <v>668</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15809,7 +15778,7 @@
         <v>80</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>82</v>
@@ -15818,18 +15787,20 @@
         <v>82</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>109</v>
+        <v>669</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>110</v>
+        <v>670</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N110" s="2"/>
+        <v>671</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>672</v>
+      </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15878,19 +15849,19 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>112</v>
+        <v>668</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>82</v>
@@ -15899,10 +15870,10 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>82</v>
+        <v>666</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>113</v>
+        <v>673</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15913,14 +15884,14 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>652</v>
+        <v>674</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>652</v>
+        <v>674</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -15930,27 +15901,29 @@
         <v>81</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I111" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>116</v>
+        <v>604</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>117</v>
+        <v>675</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>118</v>
+        <v>675</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O111" s="2"/>
+        <v>676</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>677</v>
+      </c>
       <c r="P111" t="s" s="2">
         <v>82</v>
       </c>
@@ -15986,19 +15959,19 @@
         <v>82</v>
       </c>
       <c r="AB111" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AC111" t="s" s="2">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="AD111" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>123</v>
+        <v>674</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -16010,7 +15983,7 @@
         <v>105</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>124</v>
+        <v>678</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>82</v>
@@ -16019,10 +15992,10 @@
         <v>82</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>82</v>
+        <v>679</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>107</v>
+        <v>680</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -16033,10 +16006,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>653</v>
+        <v>681</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>653</v>
+        <v>681</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16044,7 +16017,7 @@
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>93</v>
@@ -16056,23 +16029,19 @@
         <v>82</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>253</v>
+        <v>110</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>82</v>
       </c>
@@ -16120,7 +16089,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>257</v>
+        <v>112</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -16129,10 +16098,10 @@
         <v>93</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>82</v>
@@ -16141,10 +16110,10 @@
         <v>82</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>258</v>
+        <v>82</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>259</v>
+        <v>113</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
@@ -16155,21 +16124,21 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>654</v>
+        <v>682</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>654</v>
+        <v>682</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>82</v>
@@ -16178,19 +16147,19 @@
         <v>82</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>262</v>
+        <v>117</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>263</v>
+        <v>118</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>264</v>
+        <v>119</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -16228,31 +16197,31 @@
         <v>82</v>
       </c>
       <c r="AB113" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AC113" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AD113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>82</v>
@@ -16261,10 +16230,10 @@
         <v>82</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>266</v>
+        <v>82</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>267</v>
+        <v>107</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>82</v>
@@ -16275,45 +16244,45 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>655</v>
+        <v>683</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>655</v>
+        <v>683</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>82</v>
+        <v>615</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J114" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>270</v>
+        <v>616</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>271</v>
+        <v>617</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>272</v>
+        <v>119</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>82</v>
@@ -16362,19 +16331,19 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>274</v>
+        <v>618</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>82</v>
@@ -16383,10 +16352,10 @@
         <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>275</v>
+        <v>82</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>276</v>
+        <v>107</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
@@ -16397,10 +16366,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>656</v>
+        <v>684</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>656</v>
+        <v>684</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16408,13 +16377,13 @@
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I115" t="s" s="2">
         <v>82</v>
@@ -16423,19 +16392,19 @@
         <v>94</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>109</v>
+        <v>228</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>279</v>
+        <v>685</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>280</v>
+        <v>686</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>272</v>
+        <v>687</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>281</v>
+        <v>688</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16460,13 +16429,13 @@
         <v>82</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>82</v>
+        <v>689</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>82</v>
+        <v>690</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>82</v>
@@ -16484,10 +16453,10 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>282</v>
+        <v>684</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>93</v>
@@ -16502,16 +16471,16 @@
         <v>82</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>82</v>
+        <v>691</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>283</v>
+        <v>401</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>284</v>
+        <v>402</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>82</v>
+        <v>403</v>
       </c>
       <c r="AP115" t="s" s="2">
         <v>82</v>
@@ -16519,10 +16488,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>657</v>
+        <v>692</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>657</v>
+        <v>692</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16536,7 +16505,7 @@
         <v>93</v>
       </c>
       <c r="H116" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I116" t="s" s="2">
         <v>82</v>
@@ -16545,19 +16514,19 @@
         <v>94</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>287</v>
+        <v>693</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>288</v>
+        <v>694</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>289</v>
+        <v>695</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>290</v>
+        <v>696</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>291</v>
+        <v>476</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16582,13 +16551,13 @@
         <v>82</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>82</v>
+        <v>697</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>82</v>
+        <v>698</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>82</v>
@@ -16606,7 +16575,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>292</v>
+        <v>692</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16615,7 +16584,7 @@
         <v>93</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>105</v>
+        <v>699</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>106</v>
@@ -16624,27 +16593,27 @@
         <v>82</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>82</v>
+        <v>700</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>293</v>
+        <v>479</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>294</v>
+        <v>480</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP116" t="s" s="2">
-        <v>82</v>
+        <v>481</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>658</v>
+        <v>701</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>658</v>
+        <v>701</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16658,28 +16627,28 @@
         <v>93</v>
       </c>
       <c r="H117" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>109</v>
+        <v>228</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>297</v>
+        <v>702</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>298</v>
+        <v>703</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>299</v>
+        <v>704</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>300</v>
+        <v>531</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16704,13 +16673,13 @@
         <v>82</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>82</v>
+        <v>532</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>82</v>
+        <v>533</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>82</v>
@@ -16728,7 +16697,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>301</v>
+        <v>701</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16737,7 +16706,7 @@
         <v>93</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>105</v>
+        <v>705</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>106</v>
@@ -16749,10 +16718,10 @@
         <v>82</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>302</v>
+        <v>107</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>303</v>
+        <v>535</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
@@ -16763,21 +16732,21 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>659</v>
+        <v>706</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>659</v>
+        <v>706</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>82</v>
+        <v>548</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>82</v>
@@ -16789,19 +16758,19 @@
         <v>82</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>660</v>
+        <v>228</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>661</v>
+        <v>549</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>662</v>
+        <v>550</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>663</v>
+        <v>551</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>664</v>
+        <v>552</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16826,13 +16795,13 @@
         <v>82</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>82</v>
+        <v>553</v>
       </c>
       <c r="Z118" t="s" s="2">
-        <v>82</v>
+        <v>554</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>82</v>
@@ -16850,45 +16819,45 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>659</v>
+        <v>706</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>665</v>
+        <v>106</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>82</v>
+        <v>555</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>666</v>
+        <v>556</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>667</v>
+        <v>557</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP118" t="s" s="2">
-        <v>82</v>
+        <v>558</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>668</v>
+        <v>707</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>668</v>
+        <v>707</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16899,7 +16868,7 @@
         <v>80</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>82</v>
@@ -16911,18 +16880,20 @@
         <v>82</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>669</v>
+        <v>708</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>670</v>
+        <v>709</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O119" s="2"/>
+        <v>607</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>608</v>
+      </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
       </c>
@@ -16970,19 +16941,19 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>668</v>
+        <v>707</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>82</v>
@@ -16991,1352 +16962,20 @@
         <v>82</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>671</v>
+        <v>611</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP119" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="120" hidden="true">
-      <c r="A120" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="B120" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="C120" s="2"/>
-      <c r="D120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E120" s="2"/>
-      <c r="F120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="O120" s="2"/>
-      <c r="P120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q120" s="2"/>
-      <c r="R120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="AO120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP120" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="121" hidden="true">
-      <c r="A121" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="B121" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="C121" s="2"/>
-      <c r="D121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E121" s="2"/>
-      <c r="F121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="O121" s="2"/>
-      <c r="P121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q121" s="2"/>
-      <c r="R121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AK121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="AO121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP121" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="122" hidden="true">
-      <c r="A122" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="B122" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="C122" s="2"/>
-      <c r="D122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E122" s="2"/>
-      <c r="F122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H122" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="I122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J122" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="P122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q122" s="2"/>
-      <c r="R122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM122" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="AO122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP122" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="123" hidden="true">
-      <c r="A123" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="C123" s="2"/>
-      <c r="D123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E123" s="2"/>
-      <c r="F123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G123" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K123" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N123" s="2"/>
-      <c r="O123" s="2"/>
-      <c r="P123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q123" s="2"/>
-      <c r="R123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF123" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AG123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH123" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN123" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AO123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP123" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="124" hidden="true">
-      <c r="A124" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="E124" s="2"/>
-      <c r="F124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G124" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K124" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O124" s="2"/>
-      <c r="P124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q124" s="2"/>
-      <c r="R124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF124" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AG124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH124" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI124" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ124" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN124" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AO124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP124" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="125" hidden="true">
-      <c r="A125" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="E125" s="2"/>
-      <c r="F125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="P125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q125" s="2"/>
-      <c r="R125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN125" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AO125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP125" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="126" hidden="true">
-      <c r="A126" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="C126" s="2"/>
-      <c r="D126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E126" s="2"/>
-      <c r="F126" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="P126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q126" s="2"/>
-      <c r="R126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AO126" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AP126" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="127" hidden="true">
-      <c r="A127" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="C127" s="2"/>
-      <c r="D127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E127" s="2"/>
-      <c r="F127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G127" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H127" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="I127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J127" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>706</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="O127" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="P127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q127" s="2"/>
-      <c r="R127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>708</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>709</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF127" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="AG127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH127" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI127" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="AJ127" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AO127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP127" t="s" s="2">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="128" hidden="true">
-      <c r="A128" t="s" s="2">
-        <v>712</v>
-      </c>
-      <c r="B128" t="s" s="2">
-        <v>712</v>
-      </c>
-      <c r="C128" s="2"/>
-      <c r="D128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E128" s="2"/>
-      <c r="F128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G128" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H128" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="I128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>715</v>
-      </c>
-      <c r="O128" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="P128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q128" s="2"/>
-      <c r="R128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X128" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>712</v>
-      </c>
-      <c r="AG128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH128" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI128" t="s" s="2">
-        <v>716</v>
-      </c>
-      <c r="AJ128" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM128" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="AO128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP128" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="129" hidden="true">
-      <c r="A129" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="B129" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="C129" s="2"/>
-      <c r="D129" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="E129" s="2"/>
-      <c r="F129" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G129" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K129" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="P129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q129" s="2"/>
-      <c r="R129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X129" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="Y129" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="Z129" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AA129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF129" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH129" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI129" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ129" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL129" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AO129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP129" t="s" s="2">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="130" hidden="true">
-      <c r="A130" t="s" s="2">
-        <v>718</v>
-      </c>
-      <c r="B130" t="s" s="2">
-        <v>718</v>
-      </c>
-      <c r="C130" s="2"/>
-      <c r="D130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E130" s="2"/>
-      <c r="F130" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G130" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K130" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>719</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>720</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="P130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q130" s="2"/>
-      <c r="R130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF130" t="s" s="2">
-        <v>718</v>
-      </c>
-      <c r="AG130" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH130" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM130" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="AO130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP130" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP130">
+  <autoFilter ref="A1:AP119">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -18346,7 +16985,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI129">
+  <conditionalFormatting sqref="A2:AI118">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
